--- a/Documentos/Caraterísticas.xlsx
+++ b/Documentos/Caraterísticas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Produto</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Lista SOS</t>
+  </si>
+  <si>
+    <t>Casa</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="B2:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,18 +513,21 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -532,13 +538,16 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>43187</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Documentos/Caraterísticas.xlsx
+++ b/Documentos/Caraterísticas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>Produto</t>
   </si>
@@ -29,24 +29,9 @@
     <t>Família</t>
   </si>
   <si>
-    <t>Data de Validade</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>ID - auto generated</t>
-  </si>
-  <si>
-    <t>Produto ID</t>
-  </si>
-  <si>
-    <t>NFC/Código Barras</t>
-  </si>
-  <si>
-    <t>Produto Detalhe</t>
-  </si>
-  <si>
     <t>Local</t>
   </si>
   <si>
@@ -56,39 +41,15 @@
     <t>Ingredientes</t>
   </si>
   <si>
-    <t>Produto em Stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lacticinios </t>
-  </si>
-  <si>
     <t>Leite</t>
   </si>
   <si>
     <t>Frigorifico</t>
   </si>
   <si>
-    <t>Leite de Vaca</t>
-  </si>
-  <si>
     <t>Lactose</t>
   </si>
   <si>
-    <t xml:space="preserve"> Movimento de Produtos</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Arrumado</t>
-  </si>
-  <si>
-    <t>Tipo Movimento</t>
-  </si>
-  <si>
     <t>Entrada</t>
   </si>
   <si>
@@ -104,21 +65,9 @@
     <t>Preparação</t>
   </si>
   <si>
-    <t>Receitas - Ingredientes</t>
-  </si>
-  <si>
-    <t>Qtd</t>
-  </si>
-  <si>
     <t>Lista Negra</t>
   </si>
   <si>
-    <t>Ingrediente ID</t>
-  </si>
-  <si>
-    <t>Local ID</t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
@@ -152,14 +101,153 @@
     <t>Lista SOS</t>
   </si>
   <si>
-    <t>Casa</t>
+    <t>Armazenado</t>
+  </si>
+  <si>
+    <t>Identificação</t>
+  </si>
+  <si>
+    <t>Existência</t>
+  </si>
+  <si>
+    <t>Data Validade</t>
+  </si>
+  <si>
+    <t>lt + nº série</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Leite de Vaca Pasteurizado</t>
+  </si>
+  <si>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movimento de Existências</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Detalhes Existência - Produto</t>
+  </si>
+  <si>
+    <t>Laticinios</t>
+  </si>
+  <si>
+    <t>Casa *</t>
+  </si>
+  <si>
+    <t>ID - auto generated *</t>
+  </si>
+  <si>
+    <t>Tipo Movimento *</t>
+  </si>
+  <si>
+    <t>Data *</t>
+  </si>
+  <si>
+    <t>Hora *</t>
+  </si>
+  <si>
+    <t>Higiene</t>
+  </si>
+  <si>
+    <t>Shampoo de Camomila</t>
+  </si>
+  <si>
+    <t>Data Validade Média</t>
+  </si>
+  <si>
+    <t>1 mês</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Comestível</t>
+  </si>
+  <si>
+    <t>Incomestível</t>
+  </si>
+  <si>
+    <t>Instruções de Uso</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID Produto</t>
+  </si>
+  <si>
+    <t>Dificuldade</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>Doses</t>
+  </si>
+  <si>
+    <t>Cozinha</t>
+  </si>
+  <si>
+    <t>Tipo de Prato</t>
+  </si>
+  <si>
+    <t>Alimento</t>
+  </si>
+  <si>
+    <t>ID Receita</t>
+  </si>
+  <si>
+    <t>ID Alimento</t>
+  </si>
+  <si>
+    <t>Detalhes Existência - Alimento</t>
+  </si>
+  <si>
+    <t>ID Produto</t>
+  </si>
+  <si>
+    <t>Quantidade Min.</t>
+  </si>
+  <si>
+    <t>Lista Inexistências/Compras</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Local ID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +263,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,11 +313,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -202,13 +365,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,282 +692,569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G36"/>
+  <dimension ref="B2:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="3"/>
+    <col min="2" max="2" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="3"/>
+    <col min="6" max="6" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="10">
+        <v>43186</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="8">
+        <v>750</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="10">
+        <v>43592</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="21">
+        <v>43149</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="21">
+        <v>43149</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3">
-        <v>43187</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3">
-        <v>43149</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3">
-        <v>43149</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="8"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>111111</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="C51" s="27"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="27"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -784,53 +1274,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>34</v>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>38</v>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
